--- a/xlsx/亵渎古兰经_intext.xlsx
+++ b/xlsx/亵渎古兰经_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>亵渎古兰经</t>
   </si>
@@ -26,46 +26,46 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>古蘭經</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_亵渎古兰经</t>
+    <t>古兰经</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_亵渎古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%8B%89</t>
   </si>
   <si>
-    <t>蘇拉</t>
+    <t>苏拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8A%A0%E7%AF%87%E7%AB%A0</t>
   </si>
   <si>
-    <t>麥加篇章</t>
+    <t>麦加篇章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%9C%B0%E9%82%A3%E7%AF%87%E7%AB%A0</t>
   </si>
   <si>
-    <t>麥地那篇章</t>
+    <t>麦地那篇章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿亞</t>
+    <t>阿亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E8%88%87%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>伊斯蘭教與動物</t>
+    <t>伊斯兰教与动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%9C%AB%E4%B8%96%E8%AB%96</t>
   </si>
   <si>
-    <t>伊斯蘭教末世論</t>
+    <t>伊斯兰教末世论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99%E7%9A%84%E7%A5%9E</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E7%9A%84%E5%85%88%E7%9F%A5</t>
   </si>
   <si>
-    <t>伊斯蘭教的先知</t>
+    <t>伊斯兰教的先知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8F%B2%E8%8C%B2</t>
   </si>
   <si>
-    <t>哈菲茲</t>
+    <t>哈菲兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%B5%E8%90%BD</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93%E8%AD%AF%E6%9C%AC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>古蘭經譯本列表</t>
+    <t>古兰经译本列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Origin_and_development_of_the_Qur%27an</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BF%B0%E5%8F%A4%E8%98%AD%E7%B6%93%E6%89%8B%E7%A8%BF</t>
   </si>
   <si>
-    <t>伯明翰古蘭經手稿</t>
+    <t>伯明翰古兰经手稿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%96%AF%E8%B5%AB</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%8D%A8%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>唯獨古蘭經</t>
+    <t>唯独古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93%E4%B9%8B%E5%B1%8B</t>
   </si>
   <si>
-    <t>古蘭經之屋</t>
+    <t>古兰经之屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Quran</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>加沙戰爭</t>
+    <t>加沙战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
@@ -227,15 +227,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%B6%93%E5%85%B8</t>
   </si>
   <si>
-    <t>宗教經典</t>
+    <t>宗教经典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B0%E7%BB%8F</t>
   </si>
   <si>
-    <t>古兰经</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
   </si>
   <si>
@@ -245,13 +242,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%BB%E7%80%86</t>
   </si>
   <si>
-    <t>褻瀆</t>
+    <t>亵渎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%B7%A8</t>
   </si>
   <si>
-    <t>小淨</t>
+    <t>小净</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Michael_Cook_(historian)</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>加拿大廣播公司</t>
+    <t>加拿大广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E5%91%A8%E5%88%8A</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E8%A8%8A%E9%80%BC%E4%BE%9B</t>
   </si>
   <si>
-    <t>刑訊逼供</t>
+    <t>刑讯逼供</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Christianah_Oluwatoyin_Oluwasesin</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E6%81%A9%E6%96%AF%E7%B6%AD%E7%88%BE_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蓋恩斯維爾 (佛羅里達州)</t>
+    <t>盖恩斯维尔 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%B4%BF%E4%B8%96%E7%95%8C%E6%9C%8D%E5%8B%99%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>靈鴿世界服務中心</t>
+    <t>灵鸽世界服务中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Terry_Jones_(pastor)</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%85%8B%E6%96%AF%E5%B7%B4%E6%89%8E%E7%88%BE%E7%B8%A3</t>
   </si>
   <si>
-    <t>科克斯巴扎爾縣</t>
+    <t>科克斯巴扎尔县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%93%88%E6%AF%94%E6%B4%BE</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%82%89</t>
   </si>
   <si>
-    <t>煙肉</t>
+    <t>烟肉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%B4%81_(%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99)</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%BB%E7%80%86%E6%97%97%E5%B9%9F</t>
   </si>
   <si>
-    <t>褻瀆旗幟</t>
+    <t>亵渎旗帜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%81%90%E6%83%A7%E7%97%87</t>
@@ -1929,7 +1926,7 @@
         <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
         <v>43</v>
@@ -1955,10 +1952,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>13</v>
@@ -1984,10 +1981,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2013,10 +2010,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2042,10 +2039,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2071,10 +2068,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2100,10 +2097,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -2129,10 +2126,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2158,10 +2155,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2187,10 +2184,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2216,10 +2213,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2245,10 +2242,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2274,10 +2271,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
@@ -2303,10 +2300,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2332,10 +2329,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2361,10 +2358,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2390,10 +2387,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2419,10 +2416,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2448,10 +2445,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2477,10 +2474,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2506,10 +2503,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2535,10 +2532,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2564,10 +2561,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2593,10 +2590,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2622,10 +2619,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2651,10 +2648,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2680,10 +2677,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2709,10 +2706,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2738,10 +2735,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2767,10 +2764,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2796,10 +2793,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2825,10 +2822,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2854,10 +2851,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2883,10 +2880,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2912,10 +2909,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2941,10 +2938,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2970,10 +2967,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2999,10 +2996,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3028,10 +3025,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3057,10 +3054,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3086,10 +3083,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3115,10 +3112,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3144,10 +3141,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
